--- a/data-raw/mCRM_bird_parameter_Defaults.xlsx
+++ b/data-raw/mCRM_bird_parameter_Defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aonghais\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PROJECTS_CURRENT\HC0054 - MSS update to sCRM\300 - Technical\mCRM\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B61E28-570A-4965-A997-B81889945591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709148E-150A-4EF8-8F44-A1471EF0BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C3AA158-F65C-4955-A6B9-80286CA44754}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C3AA158-F65C-4955-A6B9-80286CA44754}"/>
   </bookViews>
   <sheets>
     <sheet name="Default Values" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="289">
   <si>
     <t>Body_length</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Anser brachyrhynchus</t>
   </si>
   <si>
-    <t>whfgo</t>
-  </si>
-  <si>
     <t>Anser albifrons flavirostris</t>
   </si>
   <si>
@@ -346,18 +343,6 @@
     <t>Anser anser</t>
   </si>
   <si>
-    <t>bargo</t>
-  </si>
-  <si>
-    <t>Branta leucopsis</t>
-  </si>
-  <si>
-    <t>brego</t>
-  </si>
-  <si>
-    <t>Branta bernicla hrota</t>
-  </si>
-  <si>
     <t>Branta bernicla bernicla</t>
   </si>
   <si>
@@ -400,9 +385,6 @@
     <t>Anas crecca</t>
   </si>
   <si>
-    <t>teal.</t>
-  </si>
-  <si>
     <t>Anas platyrynhchos</t>
   </si>
   <si>
@@ -520,12 +502,6 @@
     <t>Calidris canutus</t>
   </si>
   <si>
-    <t>knot.</t>
-  </si>
-  <si>
-    <t>ruff.</t>
-  </si>
-  <si>
     <t>Calidris alba</t>
   </si>
   <si>
@@ -884,6 +860,48 @@
   </si>
   <si>
     <t>august,september</t>
+  </si>
+  <si>
+    <t>teal</t>
+  </si>
+  <si>
+    <t>knot</t>
+  </si>
+  <si>
+    <t>ruff</t>
+  </si>
+  <si>
+    <t>sv_bargo</t>
+  </si>
+  <si>
+    <t>gr_bargo</t>
+  </si>
+  <si>
+    <t>ca_brego</t>
+  </si>
+  <si>
+    <t>sv_brego</t>
+  </si>
+  <si>
+    <t>db_brego</t>
+  </si>
+  <si>
+    <t>gr_whfgo</t>
+  </si>
+  <si>
+    <t>eu_whfgo</t>
+  </si>
+  <si>
+    <t>Branta leucopsis svalbard</t>
+  </si>
+  <si>
+    <t>Branta leucopsis greenland</t>
+  </si>
+  <si>
+    <t>Branta bernicla hrota canadian</t>
+  </si>
+  <si>
+    <t>Branta bernicla hrota svalbard</t>
   </si>
 </sst>
 </file>
@@ -1270,33 +1288,34 @@
       <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1331,7 +1350,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -1343,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>2</v>
@@ -1352,13 +1371,13 @@
         <v>6</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1399,10 +1418,10 @@
         <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>0.98799999999999999</v>
@@ -1417,7 +1436,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1458,10 +1477,10 @@
         <v>86</v>
       </c>
       <c r="N3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>0.98799999999999999</v>
@@ -1476,7 +1495,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1517,10 +1536,10 @@
         <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>0.999</v>
@@ -1535,7 +1554,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1576,10 +1595,10 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q5">
         <v>0.999</v>
@@ -1594,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1605,10 +1624,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="F6">
         <v>0.72</v>
@@ -1632,10 +1651,10 @@
         <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q6">
         <v>0.999</v>
@@ -1650,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1661,10 +1680,10 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="F7">
         <v>0.72</v>
@@ -1688,10 +1707,10 @@
         <v>86</v>
       </c>
       <c r="N7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q7">
         <v>0.999</v>
@@ -1706,7 +1725,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -1717,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
         <v>96</v>
@@ -1747,10 +1766,10 @@
         <v>86</v>
       </c>
       <c r="N8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>0.999</v>
@@ -1765,7 +1784,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1776,10 +1795,10 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="F9">
         <v>0.64</v>
@@ -1806,10 +1825,10 @@
         <v>86</v>
       </c>
       <c r="N9" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O9" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>0.999</v>
@@ -1824,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1835,10 +1854,10 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="F10">
         <v>0.64</v>
@@ -1865,10 +1884,10 @@
         <v>86</v>
       </c>
       <c r="N10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O10" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>0.999</v>
@@ -1883,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1894,10 +1913,10 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="F11">
         <v>0.57999999999999996</v>
@@ -1924,10 +1943,10 @@
         <v>86</v>
       </c>
       <c r="N11" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O11" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>0.999</v>
@@ -1942,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1953,10 +1972,10 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="F12">
         <v>0.57999999999999996</v>
@@ -1983,10 +2002,10 @@
         <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O12" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>0.999</v>
@@ -2001,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2012,10 +2031,10 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="F13">
         <v>0.57999999999999996</v>
@@ -2042,10 +2061,10 @@
         <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O13" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>0.999</v>
@@ -2060,7 +2079,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -2071,10 +2090,10 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F14">
         <v>0.62</v>
@@ -2101,10 +2120,10 @@
         <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>0.98499999999999999</v>
@@ -2119,7 +2138,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2130,10 +2149,10 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F15">
         <v>0.48</v>
@@ -2157,10 +2176,10 @@
         <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O15" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>0.98499999999999999</v>
@@ -2175,7 +2194,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -2186,10 +2205,10 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>0.51</v>
@@ -2213,10 +2232,10 @@
         <v>86</v>
       </c>
       <c r="N16" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q16">
         <v>0.98499999999999999</v>
@@ -2231,7 +2250,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -2242,10 +2261,10 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="F17">
         <v>0.36</v>
@@ -2272,10 +2291,10 @@
         <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q17">
         <v>0.98499999999999999</v>
@@ -2290,7 +2309,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -2301,10 +2320,10 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F18">
         <v>0.57999999999999996</v>
@@ -2328,13 +2347,13 @@
         <v>86</v>
       </c>
       <c r="N18" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O18" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P18" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Q18">
         <v>0.98499999999999999</v>
@@ -2349,7 +2368,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -2360,10 +2379,10 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F19">
         <v>0.57999999999999996</v>
@@ -2387,10 +2406,10 @@
         <v>86</v>
       </c>
       <c r="N19" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O19" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>0.98499999999999999</v>
@@ -2405,7 +2424,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -2416,10 +2435,10 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F20">
         <v>0.48</v>
@@ -2443,13 +2462,13 @@
         <v>86</v>
       </c>
       <c r="N20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q20">
         <v>0.98499999999999999</v>
@@ -2464,7 +2483,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -2475,10 +2494,10 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F21">
         <v>0.46</v>
@@ -2502,10 +2521,10 @@
         <v>86</v>
       </c>
       <c r="N21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q21">
         <v>0.98499999999999999</v>
@@ -2520,7 +2539,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -2531,10 +2550,10 @@
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F22">
         <v>0.44</v>
@@ -2561,10 +2580,10 @@
         <v>86</v>
       </c>
       <c r="N22" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>0.98499999999999999</v>
@@ -2579,7 +2598,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -2590,10 +2609,10 @@
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>0.46</v>
@@ -2617,10 +2636,10 @@
         <v>86</v>
       </c>
       <c r="N23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>0.98499999999999999</v>
@@ -2635,7 +2654,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -2646,10 +2665,10 @@
         <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F24">
         <v>0.44</v>
@@ -2676,10 +2695,10 @@
         <v>86</v>
       </c>
       <c r="N24" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>0.98499999999999999</v>
@@ -2694,7 +2713,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -2705,10 +2724,10 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F25">
         <v>0.6</v>
@@ -2735,7 +2754,7 @@
         <v>86</v>
       </c>
       <c r="O25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q25">
         <v>0.98499999999999999</v>
@@ -2750,7 +2769,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -2761,10 +2780,10 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F26">
         <v>0.49</v>
@@ -2791,10 +2810,10 @@
         <v>86</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>0.98499999999999999</v>
@@ -2809,7 +2828,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -2820,10 +2839,10 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F27">
         <v>0.54</v>
@@ -2850,10 +2869,10 @@
         <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>0.98499999999999999</v>
@@ -2868,7 +2887,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2879,10 +2898,10 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F28">
         <v>0.46</v>
@@ -2909,10 +2928,10 @@
         <v>86</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q28">
         <v>0.98499999999999999</v>
@@ -2927,7 +2946,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -2938,10 +2957,10 @@
         <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F29">
         <v>0.55000000000000004</v>
@@ -2968,10 +2987,10 @@
         <v>86</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>0.98499999999999999</v>
@@ -2986,7 +3005,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2997,10 +3016,10 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F30">
         <v>0.62</v>
@@ -3027,10 +3046,10 @@
         <v>86</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>0.98499999999999999</v>
@@ -3045,7 +3064,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3056,10 +3075,10 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F31">
         <v>0.42</v>
@@ -3086,10 +3105,10 @@
         <v>86</v>
       </c>
       <c r="N31" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>0.999</v>
@@ -3104,7 +3123,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3115,10 +3134,10 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F32">
         <v>0.19</v>
@@ -3145,10 +3164,10 @@
         <v>86</v>
       </c>
       <c r="N32" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q32">
         <v>0.999</v>
@@ -3163,7 +3182,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -3174,10 +3193,10 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F33">
         <v>0.28000000000000003</v>
@@ -3204,10 +3223,10 @@
         <v>86</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q33">
         <v>0.999</v>
@@ -3222,7 +3241,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -3233,10 +3252,10 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F34">
         <v>0.28000000000000003</v>
@@ -3263,10 +3282,10 @@
         <v>86</v>
       </c>
       <c r="N34" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>0.999</v>
@@ -3281,7 +3300,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -3292,10 +3311,10 @@
         <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F35">
         <v>0.3</v>
@@ -3322,10 +3341,10 @@
         <v>86</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O35" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>0.999</v>
@@ -3340,7 +3359,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3351,10 +3370,10 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="F36">
         <v>0.24</v>
@@ -3381,7 +3400,7 @@
         <v>86</v>
       </c>
       <c r="O36" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q36">
         <v>0.999</v>
@@ -3396,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3407,10 +3426,10 @@
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F37">
         <v>0.2</v>
@@ -3437,10 +3456,10 @@
         <v>86</v>
       </c>
       <c r="N37" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>0.999</v>
@@ -3455,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -3466,10 +3485,10 @@
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F38">
         <v>0.21</v>
@@ -3496,10 +3515,10 @@
         <v>86</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O38" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>0.999</v>
@@ -3514,7 +3533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -3525,10 +3544,10 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F39">
         <v>0.18</v>
@@ -3555,10 +3574,10 @@
         <v>86</v>
       </c>
       <c r="N39" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O39" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>0.999</v>
@@ -3573,7 +3592,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3584,10 +3603,10 @@
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="F40">
         <v>0.25</v>
@@ -3614,10 +3633,10 @@
         <v>86</v>
       </c>
       <c r="N40" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O40" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>0.999</v>
@@ -3632,7 +3651,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -3643,10 +3662,10 @@
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F41">
         <v>0.26</v>
@@ -3673,13 +3692,13 @@
         <v>86</v>
       </c>
       <c r="N41" t="s">
+        <v>238</v>
+      </c>
+      <c r="O41" t="s">
         <v>246</v>
       </c>
-      <c r="O41" t="s">
-        <v>254</v>
-      </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>0.999</v>
@@ -3694,7 +3713,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3705,10 +3724,10 @@
         <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F42">
         <v>0.42</v>
@@ -3735,10 +3754,10 @@
         <v>86</v>
       </c>
       <c r="N42" t="s">
+        <v>238</v>
+      </c>
+      <c r="O42" t="s">
         <v>246</v>
-      </c>
-      <c r="O42" t="s">
-        <v>254</v>
       </c>
       <c r="Q42">
         <v>0.999</v>
@@ -3753,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3764,10 +3783,10 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F43">
         <v>0.38</v>
@@ -3794,10 +3813,10 @@
         <v>86</v>
       </c>
       <c r="N43" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O43" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>0.999</v>
@@ -3812,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3823,10 +3842,10 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F44">
         <v>0.41</v>
@@ -3853,10 +3872,10 @@
         <v>86</v>
       </c>
       <c r="N44" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O44" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>0.999</v>
@@ -3871,7 +3890,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -3882,10 +3901,10 @@
         <v>59</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F45">
         <v>0.55000000000000004</v>
@@ -3912,10 +3931,10 @@
         <v>86</v>
       </c>
       <c r="N45" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O45" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q45">
         <v>0.999</v>
@@ -3930,7 +3949,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -3941,10 +3960,10 @@
         <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F46">
         <v>0.32</v>
@@ -3971,10 +3990,10 @@
         <v>86</v>
       </c>
       <c r="N46" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O46" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>0.999</v>
@@ -3989,7 +4008,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -4000,10 +4019,10 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F47">
         <v>0.2</v>
@@ -4030,10 +4049,10 @@
         <v>86</v>
       </c>
       <c r="N47" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O47" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q47">
         <v>0.999</v>
@@ -4048,7 +4067,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -4059,10 +4078,10 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F48">
         <v>0.28000000000000003</v>
@@ -4089,10 +4108,10 @@
         <v>86</v>
       </c>
       <c r="N48" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O48" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>0.999</v>
@@ -4107,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -4118,10 +4137,10 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F49">
         <v>0.23</v>
@@ -4148,10 +4167,10 @@
         <v>86</v>
       </c>
       <c r="N49" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O49" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>0.999</v>
@@ -4166,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -4177,10 +4196,10 @@
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F50">
         <v>0.18</v>
@@ -4207,10 +4226,10 @@
         <v>86</v>
       </c>
       <c r="N50" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O50" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>0.999</v>
@@ -4225,7 +4244,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -4236,10 +4255,10 @@
         <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F51">
         <v>0.21</v>
@@ -4266,10 +4285,10 @@
         <v>86</v>
       </c>
       <c r="N51" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O51" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q51">
         <v>0.999</v>
@@ -4284,7 +4303,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -4337,7 +4356,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -4348,10 +4367,10 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F53">
         <v>0.42</v>
@@ -4378,10 +4397,10 @@
         <v>86</v>
       </c>
       <c r="N53" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O53" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>0.999</v>
@@ -4396,7 +4415,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -4407,10 +4426,10 @@
         <v>68</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F54">
         <v>0.52</v>
@@ -4437,10 +4456,10 @@
         <v>86</v>
       </c>
       <c r="N54" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O54" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q54">
         <v>0.995</v>
@@ -4455,7 +4474,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -4466,10 +4485,10 @@
         <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F55">
         <v>0.48</v>
@@ -4496,10 +4515,10 @@
         <v>86</v>
       </c>
       <c r="N55" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O55" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q55">
         <v>0.995</v>
@@ -4514,7 +4533,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -4525,10 +4544,10 @@
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E56" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F56">
         <v>0.45</v>
@@ -4555,10 +4574,10 @@
         <v>86</v>
       </c>
       <c r="N56" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O56" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>0.995</v>
@@ -4573,7 +4592,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4584,10 +4603,10 @@
         <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F57">
         <v>0.56000000000000005</v>
@@ -4614,10 +4633,10 @@
         <v>86</v>
       </c>
       <c r="N57" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O57" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>0.995</v>
@@ -4632,7 +4651,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -4643,10 +4662,10 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F58">
         <v>0.28000000000000003</v>
@@ -4673,10 +4692,10 @@
         <v>86</v>
       </c>
       <c r="N58" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O58" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>0.98899999999999999</v>
@@ -4691,7 +4710,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -4702,10 +4721,10 @@
         <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F59">
         <v>0.38</v>
@@ -4729,10 +4748,10 @@
         <v>86</v>
       </c>
       <c r="N59" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O59" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q59">
         <v>0.995</v>
@@ -4747,7 +4766,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -4758,10 +4777,10 @@
         <v>74</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F60">
         <v>0.56000000000000005</v>
@@ -4788,10 +4807,10 @@
         <v>86</v>
       </c>
       <c r="N60" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O60" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>0.995</v>
@@ -4806,7 +4825,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -4817,10 +4836,10 @@
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F61">
         <v>0.8</v>
@@ -4847,13 +4866,13 @@
         <v>86</v>
       </c>
       <c r="N61" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O61" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P61" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>0.98699999999999999</v>
@@ -4868,7 +4887,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -4879,10 +4898,10 @@
         <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F62">
         <v>0.8</v>
@@ -4906,10 +4925,10 @@
         <v>86</v>
       </c>
       <c r="N62" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="O62" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>0.995</v>
@@ -4924,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -4935,10 +4954,10 @@
         <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F63">
         <v>0.66</v>
@@ -4965,10 +4984,10 @@
         <v>86</v>
       </c>
       <c r="N63" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O63" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>0.995</v>
@@ -4983,7 +5002,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -4994,10 +5013,10 @@
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E64" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F64">
         <v>0.61</v>
@@ -5024,10 +5043,10 @@
         <v>86</v>
       </c>
       <c r="N64" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="O64" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>0.995</v>
@@ -5042,7 +5061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -5053,10 +5072,10 @@
         <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F65">
         <v>0.94</v>
@@ -5083,10 +5102,10 @@
         <v>86</v>
       </c>
       <c r="N65" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O65" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>0.99399999999999999</v>
@@ -5101,7 +5120,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -5112,10 +5131,10 @@
         <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F66">
         <v>0.75</v>
@@ -5139,10 +5158,10 @@
         <v>86</v>
       </c>
       <c r="N66" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O66" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>0.995</v>
@@ -5157,7 +5176,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -5168,10 +5187,10 @@
         <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F67">
         <v>0.48</v>
@@ -5195,13 +5214,13 @@
         <v>86</v>
       </c>
       <c r="N67" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O67" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>0.995</v>
@@ -5216,7 +5235,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -5227,10 +5246,10 @@
         <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F68">
         <v>0.34</v>
@@ -5254,10 +5273,10 @@
         <v>86</v>
       </c>
       <c r="N68" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O68" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>0.995</v>
@@ -5272,7 +5291,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -5283,10 +5302,10 @@
         <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F69">
         <v>0.23</v>
@@ -5310,10 +5329,10 @@
         <v>86</v>
       </c>
       <c r="N69" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="O69" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>0.995</v>
@@ -5328,7 +5347,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -5339,10 +5358,10 @@
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F70">
         <v>0.28000000000000003</v>
@@ -5366,10 +5385,10 @@
         <v>86</v>
       </c>
       <c r="N70" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O70" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>0.995</v>
@@ -5384,7 +5403,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -5395,10 +5414,10 @@
         <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F71">
         <v>0.27</v>
@@ -5425,10 +5444,10 @@
         <v>86</v>
       </c>
       <c r="N71" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="O71" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>0.995</v>
@@ -5457,176 +5476,176 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
     </row>
   </sheetData>

--- a/data-raw/mCRM_bird_parameter_Defaults.xlsx
+++ b/data-raw/mCRM_bird_parameter_Defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\PROJECTS_CURRENT\HC0054 - MSS update to sCRM\300 - Technical\mCRM\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HC0054 - MSS update to sCRM\300 - Technical\mCRM\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709148E-150A-4EF8-8F44-A1471EF0BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D208196-378F-4A33-919A-11C14FDD2E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C3AA158-F65C-4955-A6B9-80286CA44754}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C3AA158-F65C-4955-A6B9-80286CA44754}"/>
   </bookViews>
   <sheets>
     <sheet name="Default Values" sheetId="1" r:id="rId1"/>
@@ -1285,37 +1285,37 @@
   <dimension ref="A1:T71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -5476,13 +5476,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>214</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>215</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>234</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>235</v>
       </c>
@@ -5642,10 +5642,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
   </sheetData>
